--- a/命令参数列表.xlsx
+++ b/命令参数列表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\BRT\幕墙四性（单风机版）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\BRT\BRT_MQSX_Single_MB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E20BF5A-E4DA-4BBD-A70C-0A5B1FB2CA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB4528F-F015-4352-BCDA-F358D7B5EE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="334">
   <si>
     <t>装置相关</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1268,6 +1271,30 @@
   </si>
   <si>
     <t>水泵启停</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态风压测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态风压校准</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>36</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>37</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态风压测试装置参数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1421,7 +1448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1453,14 +1480,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1471,11 +1492,23 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1757,11 +1790,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G219"/>
+  <dimension ref="A1:G222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A163" sqref="A163:A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1778,24 +1811,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="17"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1812,8 +1845,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="7" t="s">
         <v>93</v>
       </c>
@@ -1828,8 +1861,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="7" t="s">
         <v>255</v>
       </c>
@@ -1844,8 +1877,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="7" t="s">
         <v>254</v>
       </c>
@@ -1860,8 +1893,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="7" t="s">
         <v>256</v>
       </c>
@@ -1876,8 +1909,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="E7" s="7" t="s">
         <v>240</v>
       </c>
@@ -1886,8 +1919,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
@@ -1898,8 +1931,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
@@ -1910,8 +1943,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
@@ -1922,8 +1955,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
@@ -1934,8 +1967,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
@@ -1946,8 +1979,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
@@ -1958,8 +1991,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
@@ -1970,8 +2003,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
@@ -1982,8 +2015,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
@@ -1994,8 +2027,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
@@ -2006,8 +2039,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
@@ -2018,8 +2051,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
@@ -2030,8 +2063,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="7" t="s">
         <v>327</v>
       </c>
@@ -2044,8 +2077,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="7" t="s">
         <v>274</v>
       </c>
@@ -2060,8 +2093,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
@@ -2072,8 +2105,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
@@ -2084,8 +2117,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
@@ -2096,8 +2129,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
@@ -2108,10 +2141,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -2128,8 +2161,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="7" t="s">
         <v>46</v>
       </c>
@@ -2144,8 +2177,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="7" t="s">
         <v>47</v>
       </c>
@@ -2160,8 +2193,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="7" t="s">
         <v>48</v>
       </c>
@@ -2176,8 +2209,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="7" t="s">
         <v>43</v>
       </c>
@@ -2188,8 +2221,8 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="7" t="s">
         <v>38</v>
       </c>
@@ -2200,8 +2233,8 @@
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="7" t="s">
         <v>44</v>
       </c>
@@ -2212,10 +2245,10 @@
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -2232,8 +2265,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7" t="s">
@@ -2244,8 +2277,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
@@ -2256,8 +2289,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
@@ -2268,8 +2301,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7" t="s">
@@ -2280,8 +2313,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
@@ -2292,10 +2325,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -2312,8 +2345,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="7" t="s">
         <v>31</v>
       </c>
@@ -2328,8 +2361,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="7" t="s">
         <v>39</v>
       </c>
@@ -2344,8 +2377,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="7" t="s">
         <v>30</v>
       </c>
@@ -2358,8 +2391,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="7"/>
       <c r="D43" s="6">
         <v>5</v>
@@ -2370,8 +2403,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="7"/>
       <c r="D44" s="6">
         <v>6</v>
@@ -2380,8 +2413,8 @@
       <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="7"/>
       <c r="D45" s="6">
         <v>7</v>
@@ -2390,8 +2423,8 @@
       <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
       <c r="C46" s="7" t="s">
         <v>40</v>
       </c>
@@ -2402,8 +2435,8 @@
       <c r="F46" s="7"/>
     </row>
     <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="7" t="s">
         <v>41</v>
       </c>
@@ -2414,28 +2447,28 @@
       <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="13"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="19"/>
     </row>
     <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="10" t="s">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E49" s="7" t="s">
@@ -2446,10 +2479,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
       <c r="E50" s="7" t="s">
         <v>131</v>
       </c>
@@ -2458,10 +2491,10 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
       <c r="E51" s="7" t="s">
         <v>132</v>
       </c>
@@ -2470,10 +2503,10 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
       <c r="E52" s="7" t="s">
         <v>208</v>
       </c>
@@ -2482,10 +2515,10 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
       <c r="E53" s="7" t="s">
         <v>121</v>
       </c>
@@ -2494,10 +2527,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
       <c r="E54" s="7" t="s">
         <v>122</v>
       </c>
@@ -2506,10 +2539,10 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
       <c r="E55" s="7" t="s">
         <v>123</v>
       </c>
@@ -2518,10 +2551,10 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
       <c r="E56" s="7" t="s">
         <v>124</v>
       </c>
@@ -2530,10 +2563,10 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
       <c r="E57" s="7" t="s">
         <v>125</v>
       </c>
@@ -2542,10 +2575,10 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
       <c r="E58" s="7" t="s">
         <v>126</v>
       </c>
@@ -2554,10 +2587,10 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
       <c r="E59" s="7" t="s">
         <v>130</v>
       </c>
@@ -2566,10 +2599,10 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
       <c r="E60" s="7" t="s">
         <v>127</v>
       </c>
@@ -2578,10 +2611,10 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
       <c r="E61" s="7" t="s">
         <v>128</v>
       </c>
@@ -2590,10 +2623,10 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
       <c r="E62" s="7" t="s">
         <v>263</v>
       </c>
@@ -2602,12 +2635,12 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="10" t="s">
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E63" s="7" t="s">
@@ -2618,10 +2651,10 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
       <c r="E64" s="7" t="s">
         <v>118</v>
       </c>
@@ -2630,10 +2663,10 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
       <c r="E65" s="7" t="s">
         <v>119</v>
       </c>
@@ -2642,16 +2675,16 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D66" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E66" s="8" t="s">
@@ -2663,10 +2696,10 @@
       <c r="G66" s="8"/>
     </row>
     <row r="67" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
       <c r="E67" s="8" t="s">
         <v>212</v>
       </c>
@@ -2676,10 +2709,10 @@
       <c r="G67" s="8"/>
     </row>
     <row r="68" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
       <c r="E68" s="8" t="s">
         <v>213</v>
       </c>
@@ -2689,10 +2722,10 @@
       <c r="G68" s="8"/>
     </row>
     <row r="69" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
       <c r="E69" s="8" t="s">
         <v>214</v>
       </c>
@@ -2702,10 +2735,10 @@
       <c r="G69" s="8"/>
     </row>
     <row r="70" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
       <c r="E70" s="8" t="s">
         <v>215</v>
       </c>
@@ -2715,10 +2748,10 @@
       <c r="G70" s="8"/>
     </row>
     <row r="71" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
       <c r="E71" s="8" t="s">
         <v>216</v>
       </c>
@@ -2728,10 +2761,10 @@
       <c r="G71" s="8"/>
     </row>
     <row r="72" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
       <c r="E72" s="8" t="s">
         <v>217</v>
       </c>
@@ -2741,10 +2774,10 @@
       <c r="G72" s="8"/>
     </row>
     <row r="73" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
       <c r="E73" s="8" t="s">
         <v>218</v>
       </c>
@@ -2754,10 +2787,10 @@
       <c r="G73" s="8"/>
     </row>
     <row r="74" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
       <c r="E74" s="8" t="s">
         <v>219</v>
       </c>
@@ -2767,10 +2800,10 @@
       <c r="G74" s="8"/>
     </row>
     <row r="75" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
       <c r="E75" s="8" t="s">
         <v>220</v>
       </c>
@@ -2780,10 +2813,10 @@
       <c r="G75" s="8"/>
     </row>
     <row r="76" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
       <c r="E76" s="8" t="s">
         <v>221</v>
       </c>
@@ -2793,10 +2826,10 @@
       <c r="G76" s="8"/>
     </row>
     <row r="77" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
       <c r="E77" s="8" t="s">
         <v>222</v>
       </c>
@@ -2806,10 +2839,10 @@
       <c r="G77" s="8"/>
     </row>
     <row r="78" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
       <c r="E78" s="8" t="s">
         <v>223</v>
       </c>
@@ -2819,10 +2852,10 @@
       <c r="G78" s="8"/>
     </row>
     <row r="79" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
       <c r="E79" s="8" t="s">
         <v>224</v>
       </c>
@@ -2832,10 +2865,10 @@
       <c r="G79" s="8"/>
     </row>
     <row r="80" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
       <c r="E80" s="8" t="s">
         <v>225</v>
       </c>
@@ -2845,10 +2878,10 @@
       <c r="G80" s="8"/>
     </row>
     <row r="81" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
       <c r="E81" s="8" t="s">
         <v>226</v>
       </c>
@@ -2858,10 +2891,10 @@
       <c r="G81" s="8"/>
     </row>
     <row r="82" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
       <c r="E82" s="8" t="s">
         <v>227</v>
       </c>
@@ -2871,10 +2904,10 @@
       <c r="G82" s="8"/>
     </row>
     <row r="83" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
       <c r="E83" s="8" t="s">
         <v>228</v>
       </c>
@@ -2884,10 +2917,10 @@
       <c r="G83" s="8"/>
     </row>
     <row r="84" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
       <c r="E84" s="6" t="s">
         <v>113</v>
       </c>
@@ -2897,10 +2930,10 @@
       <c r="G84" s="8"/>
     </row>
     <row r="85" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
       <c r="E85" s="6" t="s">
         <v>114</v>
       </c>
@@ -2910,10 +2943,10 @@
       <c r="G85" s="8"/>
     </row>
     <row r="86" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="10"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
       <c r="E86" s="6" t="s">
         <v>115</v>
       </c>
@@ -2923,10 +2956,10 @@
       <c r="G86" s="8"/>
     </row>
     <row r="87" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="10"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
       <c r="E87" s="6" t="s">
         <v>116</v>
       </c>
@@ -2936,10 +2969,10 @@
       <c r="G87" s="8"/>
     </row>
     <row r="88" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
       <c r="E88" s="6" t="s">
         <v>229</v>
       </c>
@@ -2949,10 +2982,10 @@
       <c r="G88" s="9"/>
     </row>
     <row r="89" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
       <c r="E89" s="6" t="s">
         <v>230</v>
       </c>
@@ -2962,10 +2995,10 @@
       <c r="G89" s="9"/>
     </row>
     <row r="90" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
       <c r="E90" s="6" t="s">
         <v>231</v>
       </c>
@@ -2975,12 +3008,12 @@
       <c r="G90" s="9"/>
     </row>
     <row r="91" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10" t="s">
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E91" s="7" t="s">
@@ -2991,10 +3024,10 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
       <c r="E92" s="7" t="s">
         <v>138</v>
       </c>
@@ -3003,10 +3036,10 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="10"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
       <c r="E93" s="7" t="s">
         <v>8</v>
       </c>
@@ -3015,12 +3048,12 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10" t="s">
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="D94" s="10" t="s">
+      <c r="D94" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E94" s="7" t="s">
@@ -3031,10 +3064,10 @@
       </c>
     </row>
     <row r="95" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="10"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
       <c r="E95" s="7" t="s">
         <v>8</v>
       </c>
@@ -3043,12 +3076,12 @@
       </c>
     </row>
     <row r="96" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="10"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10" t="s">
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D96" s="10" t="s">
+      <c r="D96" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E96" s="7" t="s">
@@ -3059,10 +3092,10 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="10"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
       <c r="E97" s="7" t="s">
         <v>8</v>
       </c>
@@ -3071,12 +3104,12 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="10"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10" t="s">
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="D98" s="10" t="s">
+      <c r="D98" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E98" s="7" t="s">
@@ -3087,10 +3120,10 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
       <c r="E99" s="7" t="s">
         <v>8</v>
       </c>
@@ -3099,12 +3132,12 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10" t="s">
+      <c r="A100" s="16"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D100" s="10" t="s">
+      <c r="D100" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E100" s="7" t="s">
@@ -3115,10 +3148,10 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="10"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
       <c r="E101" s="7" t="s">
         <v>160</v>
       </c>
@@ -3127,10 +3160,10 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="10"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
+      <c r="A102" s="16"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
       <c r="E102" s="7" t="s">
         <v>161</v>
       </c>
@@ -3139,10 +3172,10 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="10"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
+      <c r="A103" s="16"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
       <c r="E103" s="7" t="s">
         <v>162</v>
       </c>
@@ -3151,10 +3184,10 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="10"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
+      <c r="A104" s="16"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
       <c r="E104" s="7" t="s">
         <v>163</v>
       </c>
@@ -3163,10 +3196,10 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="10"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
+      <c r="A105" s="16"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
       <c r="E105" s="7" t="s">
         <v>164</v>
       </c>
@@ -3175,10 +3208,10 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="10"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
+      <c r="A106" s="16"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
       <c r="E106" s="7" t="s">
         <v>150</v>
       </c>
@@ -3187,10 +3220,10 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="10"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
+      <c r="A107" s="16"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
       <c r="E107" s="7" t="s">
         <v>152</v>
       </c>
@@ -3199,10 +3232,10 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
+      <c r="A108" s="16"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
       <c r="E108" s="7" t="s">
         <v>153</v>
       </c>
@@ -3211,10 +3244,10 @@
       </c>
     </row>
     <row r="109" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="10"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
+      <c r="A109" s="16"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
       <c r="E109" s="7" t="s">
         <v>154</v>
       </c>
@@ -3223,10 +3256,10 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="10"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
+      <c r="A110" s="16"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
       <c r="E110" s="7" t="s">
         <v>156</v>
       </c>
@@ -3235,10 +3268,10 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="10"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
+      <c r="A111" s="16"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
       <c r="E111" s="7" t="s">
         <v>155</v>
       </c>
@@ -3247,10 +3280,10 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="10"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
+      <c r="A112" s="16"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
       <c r="E112" s="7" t="s">
         <v>157</v>
       </c>
@@ -3259,10 +3292,10 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="10"/>
-      <c r="B113" s="10"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
+      <c r="A113" s="16"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
       <c r="E113" s="7" t="s">
         <v>158</v>
       </c>
@@ -3271,10 +3304,10 @@
       </c>
     </row>
     <row r="114" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="10"/>
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
+      <c r="A114" s="16"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
       <c r="E114" s="7" t="s">
         <v>159</v>
       </c>
@@ -3283,10 +3316,10 @@
       </c>
     </row>
     <row r="115" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="10"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
+      <c r="A115" s="16"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
       <c r="E115" s="7" t="s">
         <v>165</v>
       </c>
@@ -3295,10 +3328,10 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="10"/>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
+      <c r="A116" s="16"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
       <c r="E116" s="7" t="s">
         <v>166</v>
       </c>
@@ -3307,10 +3340,10 @@
       </c>
     </row>
     <row r="117" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="10"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
+      <c r="A117" s="16"/>
+      <c r="B117" s="16"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
       <c r="E117" s="7" t="s">
         <v>167</v>
       </c>
@@ -3319,10 +3352,10 @@
       </c>
     </row>
     <row r="118" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="10"/>
-      <c r="B118" s="10"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
+      <c r="A118" s="16"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
       <c r="E118" s="7" t="s">
         <v>168</v>
       </c>
@@ -3331,10 +3364,10 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="10"/>
-      <c r="B119" s="10"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
+      <c r="A119" s="16"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
       <c r="E119" s="7" t="s">
         <v>169</v>
       </c>
@@ -3343,10 +3376,10 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="10"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
+      <c r="A120" s="16"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
       <c r="E120" s="7" t="s">
         <v>170</v>
       </c>
@@ -3355,10 +3388,10 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="10"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
+      <c r="A121" s="16"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
       <c r="E121" s="7" t="s">
         <v>171</v>
       </c>
@@ -3370,43 +3403,43 @@
       <c r="A122" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C122" s="12"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="13"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="18"/>
+      <c r="E122" s="18"/>
+      <c r="F122" s="19"/>
     </row>
     <row r="123" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C123" s="12"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="13"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="19"/>
     </row>
     <row r="124" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="C124" s="12"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="13"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="19"/>
     </row>
     <row r="125" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="10" t="s">
+      <c r="A125" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="16" t="s">
         <v>110</v>
       </c>
       <c r="C125" s="4" t="s">
@@ -3423,8 +3456,8 @@
       </c>
     </row>
     <row r="126" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="10"/>
-      <c r="B126" s="10"/>
+      <c r="A126" s="16"/>
+      <c r="B126" s="16"/>
       <c r="C126" s="7" t="s">
         <v>4</v>
       </c>
@@ -3439,8 +3472,8 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="10"/>
-      <c r="B127" s="10"/>
+      <c r="A127" s="16"/>
+      <c r="B127" s="16"/>
       <c r="C127" s="7"/>
       <c r="D127" s="6"/>
       <c r="E127" s="7" t="s">
@@ -3451,8 +3484,8 @@
       </c>
     </row>
     <row r="128" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="10"/>
-      <c r="B128" s="10"/>
+      <c r="A128" s="16"/>
+      <c r="B128" s="16"/>
       <c r="C128" s="7"/>
       <c r="D128" s="6"/>
       <c r="E128" s="7" t="s">
@@ -3463,8 +3496,8 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="10"/>
-      <c r="B129" s="10"/>
+      <c r="A129" s="16"/>
+      <c r="B129" s="16"/>
       <c r="C129" s="7"/>
       <c r="D129" s="6"/>
       <c r="E129" s="1" t="s">
@@ -3475,8 +3508,8 @@
       </c>
     </row>
     <row r="130" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="10"/>
-      <c r="B130" s="10"/>
+      <c r="A130" s="16"/>
+      <c r="B130" s="16"/>
       <c r="C130" s="7"/>
       <c r="D130" s="6"/>
       <c r="E130" s="1" t="s">
@@ -3487,8 +3520,8 @@
       </c>
     </row>
     <row r="131" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="10"/>
-      <c r="B131" s="10"/>
+      <c r="A131" s="16"/>
+      <c r="B131" s="16"/>
       <c r="C131" s="7"/>
       <c r="D131" s="6"/>
       <c r="E131" s="1" t="s">
@@ -3499,8 +3532,8 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="10"/>
-      <c r="B132" s="10"/>
+      <c r="A132" s="16"/>
+      <c r="B132" s="16"/>
       <c r="C132" s="7"/>
       <c r="D132" s="6"/>
       <c r="E132" s="1" t="s">
@@ -3511,8 +3544,8 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="10"/>
-      <c r="B133" s="10"/>
+      <c r="A133" s="16"/>
+      <c r="B133" s="16"/>
       <c r="C133" s="7"/>
       <c r="D133" s="6"/>
       <c r="E133" s="1" t="s">
@@ -3523,8 +3556,8 @@
       </c>
     </row>
     <row r="134" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="10"/>
-      <c r="B134" s="10"/>
+      <c r="A134" s="16"/>
+      <c r="B134" s="16"/>
       <c r="C134" s="7"/>
       <c r="D134" s="6"/>
       <c r="E134" s="1" t="s">
@@ -3535,8 +3568,8 @@
       </c>
     </row>
     <row r="135" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="10"/>
-      <c r="B135" s="10"/>
+      <c r="A135" s="16"/>
+      <c r="B135" s="16"/>
       <c r="C135" s="7"/>
       <c r="D135" s="6"/>
       <c r="E135" s="1" t="s">
@@ -3547,8 +3580,8 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="10"/>
-      <c r="B136" s="10"/>
+      <c r="A136" s="16"/>
+      <c r="B136" s="16"/>
       <c r="C136" s="7"/>
       <c r="D136" s="6"/>
       <c r="E136" s="1" t="s">
@@ -3559,8 +3592,8 @@
       </c>
     </row>
     <row r="137" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="10"/>
-      <c r="B137" s="10"/>
+      <c r="A137" s="16"/>
+      <c r="B137" s="16"/>
       <c r="C137" s="7"/>
       <c r="D137" s="6"/>
       <c r="E137" s="1" t="s">
@@ -3571,8 +3604,8 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="10"/>
-      <c r="B138" s="10"/>
+      <c r="A138" s="16"/>
+      <c r="B138" s="16"/>
       <c r="C138" s="7"/>
       <c r="D138" s="6"/>
       <c r="E138" s="1" t="s">
@@ -3583,8 +3616,8 @@
       </c>
     </row>
     <row r="139" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="10"/>
-      <c r="B139" s="10"/>
+      <c r="A139" s="16"/>
+      <c r="B139" s="16"/>
       <c r="C139" s="7"/>
       <c r="D139" s="6"/>
       <c r="E139" s="1" t="s">
@@ -3595,8 +3628,8 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="10"/>
-      <c r="B140" s="10"/>
+      <c r="A140" s="16"/>
+      <c r="B140" s="16"/>
       <c r="C140" s="7"/>
       <c r="D140" s="6"/>
       <c r="E140" s="1" t="s">
@@ -3607,8 +3640,8 @@
       </c>
     </row>
     <row r="141" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="10"/>
-      <c r="B141" s="10"/>
+      <c r="A141" s="16"/>
+      <c r="B141" s="16"/>
       <c r="C141" s="7"/>
       <c r="D141" s="6"/>
       <c r="E141" s="1" t="s">
@@ -3619,8 +3652,8 @@
       </c>
     </row>
     <row r="142" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="10"/>
-      <c r="B142" s="10"/>
+      <c r="A142" s="16"/>
+      <c r="B142" s="16"/>
       <c r="C142" s="7"/>
       <c r="D142" s="6"/>
       <c r="E142" s="7" t="s">
@@ -3631,8 +3664,8 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="10"/>
-      <c r="B143" s="10"/>
+      <c r="A143" s="16"/>
+      <c r="B143" s="16"/>
       <c r="C143" s="7"/>
       <c r="D143" s="6"/>
       <c r="E143" s="7" t="s">
@@ -3643,8 +3676,8 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="10"/>
-      <c r="B144" s="10"/>
+      <c r="A144" s="16"/>
+      <c r="B144" s="16"/>
       <c r="C144" s="7"/>
       <c r="D144" s="6"/>
       <c r="E144" s="7" t="s">
@@ -3655,8 +3688,8 @@
       </c>
     </row>
     <row r="145" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="10"/>
-      <c r="B145" s="10"/>
+      <c r="A145" s="16"/>
+      <c r="B145" s="16"/>
       <c r="C145" s="7"/>
       <c r="D145" s="6"/>
       <c r="E145" s="7" t="s">
@@ -3667,8 +3700,8 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="10"/>
-      <c r="B146" s="10"/>
+      <c r="A146" s="16"/>
+      <c r="B146" s="16"/>
       <c r="C146" s="7"/>
       <c r="D146" s="6"/>
       <c r="E146" s="7" t="s">
@@ -3679,8 +3712,8 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="10"/>
-      <c r="B147" s="10"/>
+      <c r="A147" s="16"/>
+      <c r="B147" s="16"/>
       <c r="C147" s="7"/>
       <c r="D147" s="6"/>
       <c r="E147" s="7" t="s">
@@ -3691,8 +3724,8 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="10"/>
-      <c r="B148" s="10"/>
+      <c r="A148" s="16"/>
+      <c r="B148" s="16"/>
       <c r="C148" s="7"/>
       <c r="D148" s="6"/>
       <c r="E148" s="7" t="s">
@@ -3703,8 +3736,8 @@
       </c>
     </row>
     <row r="149" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="10"/>
-      <c r="B149" s="10"/>
+      <c r="A149" s="16"/>
+      <c r="B149" s="16"/>
       <c r="C149" s="4"/>
       <c r="D149" s="5"/>
       <c r="E149" s="7" t="s">
@@ -3715,8 +3748,8 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="10"/>
-      <c r="B150" s="10"/>
+      <c r="A150" s="16"/>
+      <c r="B150" s="16"/>
       <c r="C150" s="4"/>
       <c r="D150" s="5"/>
       <c r="E150" s="1" t="s">
@@ -3727,8 +3760,8 @@
       </c>
     </row>
     <row r="151" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="10"/>
-      <c r="B151" s="10"/>
+      <c r="A151" s="16"/>
+      <c r="B151" s="16"/>
       <c r="C151" s="7"/>
       <c r="D151" s="6"/>
       <c r="E151" s="7" t="s">
@@ -3739,8 +3772,8 @@
       </c>
     </row>
     <row r="152" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="10"/>
-      <c r="B152" s="10"/>
+      <c r="A152" s="16"/>
+      <c r="B152" s="16"/>
       <c r="C152" s="7"/>
       <c r="D152" s="6"/>
       <c r="E152" s="1" t="s">
@@ -3751,8 +3784,8 @@
       </c>
     </row>
     <row r="153" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="10"/>
-      <c r="B153" s="10"/>
+      <c r="A153" s="16"/>
+      <c r="B153" s="16"/>
       <c r="C153" s="7"/>
       <c r="D153" s="6"/>
       <c r="E153" s="1" t="s">
@@ -3763,8 +3796,8 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="10"/>
-      <c r="B154" s="10"/>
+      <c r="A154" s="16"/>
+      <c r="B154" s="16"/>
       <c r="C154" s="7"/>
       <c r="D154" s="6"/>
       <c r="E154" s="7" t="s">
@@ -3775,8 +3808,8 @@
       </c>
     </row>
     <row r="155" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="10"/>
-      <c r="B155" s="10"/>
+      <c r="A155" s="16"/>
+      <c r="B155" s="16"/>
       <c r="C155" s="7"/>
       <c r="D155" s="6"/>
       <c r="E155" s="7" t="s">
@@ -3787,8 +3820,8 @@
       </c>
     </row>
     <row r="156" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="10"/>
-      <c r="B156" s="10"/>
+      <c r="A156" s="16"/>
+      <c r="B156" s="16"/>
       <c r="C156" s="7"/>
       <c r="D156" s="6"/>
       <c r="E156" s="7" t="s">
@@ -3799,8 +3832,8 @@
       </c>
     </row>
     <row r="157" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="10"/>
-      <c r="B157" s="10"/>
+      <c r="A157" s="16"/>
+      <c r="B157" s="16"/>
       <c r="C157" s="7"/>
       <c r="D157" s="6"/>
       <c r="E157" s="7" t="s">
@@ -3811,8 +3844,8 @@
       </c>
     </row>
     <row r="158" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="10"/>
-      <c r="B158" s="10"/>
+      <c r="A158" s="16"/>
+      <c r="B158" s="16"/>
       <c r="C158" s="7"/>
       <c r="D158" s="6"/>
       <c r="E158" s="7" t="s">
@@ -3823,582 +3856,642 @@
       </c>
     </row>
     <row r="159" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="10"/>
-      <c r="B159" s="10"/>
-      <c r="C159" s="7"/>
+      <c r="A159" s="16"/>
+      <c r="B159" s="16"/>
+      <c r="C159" s="10"/>
       <c r="D159" s="6"/>
-      <c r="E159" s="7" t="s">
+      <c r="E159" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="F159" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="16"/>
+      <c r="B160" s="16"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="F160" s="11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="16"/>
+      <c r="B161" s="16"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F161" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="16"/>
+      <c r="B162" s="16"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F159" s="7" t="s">
+      <c r="F162" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="10" t="s">
+    <row r="163" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B160" s="14" t="s">
+      <c r="B163" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="C163" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D160" s="7" t="s">
+      <c r="D163" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E160" s="7" t="s">
+      <c r="E163" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F160" s="7" t="s">
+      <c r="F163" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="10"/>
-      <c r="B161" s="15"/>
-      <c r="C161" s="7" t="s">
+    <row r="164" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="13"/>
+      <c r="B164" s="13"/>
+      <c r="C164" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D161" s="6">
+      <c r="D164" s="6">
         <v>2</v>
       </c>
-      <c r="E161" s="7" t="s">
+      <c r="E164" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F161" s="7" t="s">
+      <c r="F164" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="10"/>
-      <c r="B162" s="15"/>
-      <c r="C162" s="7" t="s">
+    <row r="165" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="13"/>
+      <c r="B165" s="13"/>
+      <c r="C165" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D162" s="7" t="s">
+      <c r="D165" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E162" s="7" t="s">
+      <c r="E165" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F162" s="7" t="s">
+      <c r="F165" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="10"/>
-      <c r="B163" s="15"/>
-      <c r="C163" s="7" t="s">
+    <row r="166" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="13"/>
+      <c r="B166" s="13"/>
+      <c r="C166" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D163" s="7" t="s">
+      <c r="D166" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E163" s="7" t="s">
+      <c r="E166" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F163" s="7" t="s">
+      <c r="F166" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="10"/>
-      <c r="B164" s="15"/>
-      <c r="C164" s="7" t="s">
+    <row r="167" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="13"/>
+      <c r="B167" s="13"/>
+      <c r="C167" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D164" s="7" t="s">
+      <c r="D167" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E164" s="7" t="s">
+      <c r="E167" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F164" s="7" t="s">
+      <c r="F167" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="10"/>
-      <c r="B165" s="15"/>
-      <c r="C165" s="7" t="s">
+    <row r="168" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="13"/>
+      <c r="B168" s="13"/>
+      <c r="C168" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D165" s="7" t="s">
+      <c r="D168" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E165" s="7" t="s">
+      <c r="E168" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F165" s="7" t="s">
+      <c r="F168" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="10"/>
-      <c r="B166" s="15"/>
-      <c r="C166" s="7"/>
-      <c r="D166" s="6"/>
-      <c r="E166" s="7" t="s">
+    <row r="169" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="13"/>
+      <c r="B169" s="13"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F166" s="7" t="s">
+      <c r="F169" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="10"/>
-      <c r="B167" s="15"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="7"/>
-      <c r="E167" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F167" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="10"/>
-      <c r="B168" s="15"/>
-      <c r="C168" s="7"/>
-      <c r="D168" s="7"/>
-      <c r="E168" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F168" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="10"/>
-      <c r="B169" s="15"/>
-      <c r="C169" s="7"/>
-      <c r="D169" s="7"/>
-      <c r="E169" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F169" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
     <row r="170" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="10"/>
-      <c r="B170" s="15"/>
+      <c r="A170" s="13"/>
+      <c r="B170" s="13"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="10"/>
-      <c r="B171" s="15"/>
+      <c r="A171" s="13"/>
+      <c r="B171" s="13"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="10"/>
-      <c r="B172" s="15"/>
+      <c r="A172" s="13"/>
+      <c r="B172" s="13"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="10"/>
-      <c r="B173" s="15"/>
+      <c r="A173" s="13"/>
+      <c r="B173" s="13"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="10"/>
-      <c r="B174" s="15"/>
+      <c r="A174" s="13"/>
+      <c r="B174" s="13"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="10"/>
-      <c r="B175" s="15"/>
+      <c r="A175" s="13"/>
+      <c r="B175" s="13"/>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="10"/>
-      <c r="B176" s="15"/>
+      <c r="A176" s="13"/>
+      <c r="B176" s="13"/>
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F176" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="F176" s="7" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="177" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="7"/>
-      <c r="B177" s="15"/>
+      <c r="A177" s="13"/>
+      <c r="B177" s="13"/>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7" t="s">
-        <v>283</v>
+        <v>57</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>295</v>
+        <v>84</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="7"/>
-      <c r="B178" s="15"/>
+      <c r="A178" s="13"/>
+      <c r="B178" s="13"/>
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7" t="s">
-        <v>284</v>
+        <v>90</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>296</v>
+        <v>91</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="7"/>
-      <c r="B179" s="15"/>
+      <c r="A179" s="13"/>
+      <c r="B179" s="13"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F179" s="7" t="s">
-        <v>297</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="F179" s="7"/>
     </row>
     <row r="180" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="7"/>
-      <c r="B180" s="15"/>
+      <c r="A180" s="13"/>
+      <c r="B180" s="13"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="7"/>
-      <c r="B181" s="15"/>
+      <c r="A181" s="13"/>
+      <c r="B181" s="13"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="7"/>
-      <c r="B182" s="15"/>
+      <c r="A182" s="13"/>
+      <c r="B182" s="13"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="7"/>
-      <c r="B183" s="15"/>
+      <c r="A183" s="13"/>
+      <c r="B183" s="13"/>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="7"/>
-      <c r="B184" s="15"/>
+      <c r="A184" s="13"/>
+      <c r="B184" s="13"/>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="7"/>
-      <c r="B185" s="15"/>
+      <c r="A185" s="13"/>
+      <c r="B185" s="13"/>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="7"/>
-      <c r="B186" s="15"/>
+      <c r="A186" s="13"/>
+      <c r="B186" s="13"/>
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="7"/>
-      <c r="B187" s="15"/>
+      <c r="A187" s="13"/>
+      <c r="B187" s="13"/>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="7"/>
-      <c r="B188" s="15"/>
+      <c r="A188" s="13"/>
+      <c r="B188" s="13"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="7"/>
-      <c r="B189" s="15"/>
+      <c r="A189" s="13"/>
+      <c r="B189" s="13"/>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="7"/>
-      <c r="B190" s="15"/>
+      <c r="A190" s="13"/>
+      <c r="B190" s="13"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="7"/>
-      <c r="B191" s="15"/>
+      <c r="A191" s="13"/>
+      <c r="B191" s="13"/>
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="7"/>
-      <c r="B192" s="15"/>
+      <c r="A192" s="13"/>
+      <c r="B192" s="13"/>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="7"/>
-      <c r="B193" s="15"/>
+      <c r="A193" s="13"/>
+      <c r="B193" s="13"/>
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="7"/>
-      <c r="B194" s="15"/>
+      <c r="A194" s="13"/>
+      <c r="B194" s="13"/>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="7"/>
-      <c r="B195" s="15"/>
+      <c r="A195" s="13"/>
+      <c r="B195" s="13"/>
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="7"/>
-      <c r="B196" s="15"/>
+      <c r="A196" s="13"/>
+      <c r="B196" s="13"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="7"/>
-      <c r="B197" s="16"/>
+      <c r="A197" s="13"/>
+      <c r="B197" s="13"/>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F197" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="13"/>
+      <c r="B198" s="13"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F198" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="13"/>
+      <c r="B199" s="13"/>
+      <c r="C199" s="7"/>
+      <c r="D199" s="7"/>
+      <c r="E199" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F199" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="14"/>
+      <c r="B200" s="14"/>
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
+      <c r="E200" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="F197" s="7" t="s">
+      <c r="F200" s="7" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="7" t="s">
+    <row r="201" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B198" s="7" t="s">
+      <c r="B201" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C198" s="7"/>
-      <c r="D198" s="6"/>
-      <c r="E198" s="7"/>
-      <c r="F198" s="7"/>
-    </row>
-    <row r="199" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="7" t="s">
+      <c r="C201" s="7"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="7"/>
+      <c r="F201" s="7"/>
+    </row>
+    <row r="202" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B199" s="7" t="s">
+      <c r="B202" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C199" s="7"/>
-      <c r="D199" s="6"/>
-      <c r="E199" s="7"/>
-      <c r="F199" s="7"/>
-    </row>
-    <row r="200" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="7" t="s">
+      <c r="C202" s="7"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="7"/>
+      <c r="F202" s="7"/>
+    </row>
+    <row r="203" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B200" s="7" t="s">
+      <c r="B203" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C200" s="7"/>
-      <c r="D200" s="6"/>
-      <c r="E200" s="7"/>
-      <c r="F200" s="7"/>
-    </row>
-    <row r="201" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="1" t="s">
+      <c r="C203" s="7"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="7"/>
+      <c r="F203" s="7"/>
+    </row>
+    <row r="204" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B204" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="1" t="s">
+    <row r="205" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B202" s="18" t="s">
+      <c r="B205" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C202" s="18"/>
-      <c r="D202" s="18"/>
-      <c r="E202" s="18"/>
-      <c r="F202" s="18"/>
-    </row>
-    <row r="209" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D209" s="1"/>
-    </row>
-    <row r="211" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B211" s="3"/>
-    </row>
-    <row r="213" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B213" s="3"/>
-    </row>
-    <row r="215" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B215" s="3"/>
-    </row>
-    <row r="217" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B217" s="3"/>
-    </row>
-    <row r="219" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B219" s="3"/>
+      <c r="C205" s="15"/>
+      <c r="D205" s="15"/>
+      <c r="E205" s="15"/>
+      <c r="F205" s="15"/>
+    </row>
+    <row r="212" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D212" s="1"/>
+    </row>
+    <row r="214" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B214" s="3"/>
+    </row>
+    <row r="216" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B216" s="3"/>
+    </row>
+    <row r="218" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B218" s="3"/>
+    </row>
+    <row r="220" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B220" s="3"/>
+    </row>
+    <row r="222" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B222" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B160:B197"/>
-    <mergeCell ref="B202:F202"/>
-    <mergeCell ref="B125:B159"/>
+    <mergeCell ref="A163:A200"/>
+    <mergeCell ref="C100:C121"/>
+    <mergeCell ref="D100:D121"/>
+    <mergeCell ref="B66:B121"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C49:C62"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D49:D62"/>
+    <mergeCell ref="C66:C90"/>
+    <mergeCell ref="D66:D90"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="B163:B200"/>
+    <mergeCell ref="B205:F205"/>
+    <mergeCell ref="B125:B162"/>
     <mergeCell ref="A39:A47"/>
     <mergeCell ref="B39:B47"/>
-    <mergeCell ref="A125:A159"/>
-    <mergeCell ref="A160:A176"/>
+    <mergeCell ref="A125:A162"/>
     <mergeCell ref="D63:D65"/>
     <mergeCell ref="C91:C93"/>
     <mergeCell ref="D91:D93"/>
@@ -4408,33 +4501,9 @@
     <mergeCell ref="B124:F124"/>
     <mergeCell ref="A48:A65"/>
     <mergeCell ref="B48:B65"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C49:C62"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D49:D62"/>
-    <mergeCell ref="C66:C90"/>
-    <mergeCell ref="D66:D90"/>
-    <mergeCell ref="C100:C121"/>
-    <mergeCell ref="D100:D121"/>
-    <mergeCell ref="B66:B121"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>